--- a/medicine/Enfance/Petit_Potam/Petit_Potam.xlsx
+++ b/medicine/Enfance/Petit_Potam/Petit_Potam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit Potam est un hippopotame de fiction créé par Christine Chagnoux en 1967.
 Habitant avec toute sa famille dans le village de Barbotam, sur une l'île située au milieu du fleuve Potamazone, il est le héros d'une série de livres pour la jeunesse, publiés aux éditions Dargaud.
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Petit Potam
 Tessie
@@ -549,7 +563,9 @@
           <t>Albums</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1967 : Petit Potam - Dargaud
 1969 : Petit Potam au cirque - Dargaud
@@ -584,7 +600,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Petit Potam a été adapté à deux reprises en animation  : 
 Petit Potam, série télévisée d'animation en 52 épisodes de 13 minutes, réalisée par Bernard Deyriès et diffusée en 1997 ;
